--- a/proyecto.xlsx
+++ b/proyecto.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://everisgroup-my.sharepoint.com/personal/jcenttip_emeal_nttdata_com/Documents/Documentos/BCP/microservicio-mensual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_AD4DB114E441178AC67DF4B20E95F7DE683EDF35" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1F1AD63-7505-4F1B-9637-BDC13A5766E7}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_AD4DB114E441178AC67DF4B20E95F7DE683EDF35" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C20CABDF-D658-414D-B858-0D8DDC41118D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="21600" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="21600" windowHeight="11232" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="140">
   <si>
     <t>Componente</t>
   </si>
@@ -1329,6 +1330,9 @@
       </rPr>
       <t xml:space="preserve"> Los totales del archivo TXT deben coincidir con los totales en la tabla de consolidado mensual.</t>
     </r>
+  </si>
+  <si>
+    <t>Hola, necesito un consejo de cómo estructurar este proyecto, qué usar, cómo hacerlo arquitectónicamente, cómo hacerlo, qué usar, qué no usar, etc. Para empezar, todo se va a trabajar en el tema de la nube, en Azure principalmente. Más que nada para el tema de despliegue, sólo comento eso. Es un sistema bancario, trabaja sobre la base de un sistema bancario. El objetivo de este, bueno, para entrar un poco en contexto, en la banca móvil, en el celular, hay una sección de pagar servicios. Pago de servicios de luz, agua, distintas empresas, también privadas, etc. Pago de servicios de internet, etc. Básicamente, entonces, esto, obviamente, por detrás hay como que una serie de procesos, que son, digamos, un montón de procesos bacheros, que también cada uno tiene sus microservicios, porque esto se hace por lotes. Se hace un cierre del día y se hace el depósito a cuenta a la empresa en cuestión a la que se le ha pagado el servicio. Sin embargo, esto ya está, lo que te comento, ya está desarrollado. Sino que hay una clasificativa adicional, algo que se requiere de manera adicional. Entonces, todos estos pagos, el banco a la empresa le cobra una comisión, un porcentaje. Es una comisión. Pero este proceso ya está hecho, también está realizado, está todo hecho. No hay ningún problema, ese proceso bachero está hecho. Entonces, para dar un poco de contexto, todos los procesos bacheros están desarrollados con Spring Batch, usan ya principalmente, y técnicamente hacen eso. La base de datos, las tablas, hay tablas de control, hay tablas de los datos, de resultados. Los procesos bacheros y hay una tabla específica de comisiones, donde se guarda ese tema de comisiones. El punto es que se necesita generar un reporte de manera mensual sobre los ingresos de las comisiones. Técnicamente eso es lo que se requiere. Se requiere seguir el mismo esquema en el que se ha seguido trabajando, con microservicios y todo ello. Básicamente se requiere crear este microservicio como tal. ¿Cómo me recomiendas que lo haga? Te doy un poco de background, como tal. El único producto que va a decantar, ese proceso va a tener un resultado a finales del mes. Que es un TXT, técnicamente. Y obviamente va a poblar adicionalmente una tabla. Pero lo que se va a usar como usuarios finales, van a usar más que nada el TXT, el área contable. Porque ingresa a otro sistema de un mainframe y genera sus reportes. Ya, cosas contables, que no vienen al caso. En general es como crear ese consolidado del mes. Donde están todas las empresas, la comisión que se le ha cobrado y todo ello. Entonces, ¿qué me recomiendas hacer? ¿Cómo hacerlo? Si es que requiero consolidar mi tabla día a día, o lo hago al final del mes. Adicionalmente a eso, el proceso bachero de comisiones, que ya está realizado, como antes comenté. Ya me bota una tabla, que es más o menos lo que necesitaría. Sin embargo, hay campos que el TXT o la misma tabla nueva que voy a crear para poblar con este microservicio, no están. Entonces voy a tener que hacer cruce con otras tablas de otros procesos bacheros, etc. Entonces, más o menos, ¿cómo harías para dar solución a este tema?</t>
   </si>
 </sst>
 </file>
@@ -1427,6 +1431,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1694,7 +1702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+    <sheetView topLeftCell="A134" workbookViewId="0">
       <selection activeCell="A151" sqref="A151:A185"/>
     </sheetView>
   </sheetViews>
@@ -2476,4 +2484,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6767F7-1713-4F4A-AF3D-77D5D728226C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>